--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3323688.948305286</v>
+        <v>3399218.617970091</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.812873897097107</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>307.186118632148</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.216857118215</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
-        <v>59.03226091544995</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>59.58420545602284</v>
       </c>
       <c r="E7" t="n">
-        <v>128.801431250095</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>299.4999079672565</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>271.3694897020903</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>235.7412200973001</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210775</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1813,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>8.856576811533579</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>11.58954455628749</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1895,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>174.3062600431768</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>220.083543292719</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>156.2174302415112</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>38.59744043553425</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>199.8304425089719</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>106.1850234365658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>114.4441331226389</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>70.52850687357385</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>17.78458198347545</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.662853130948322</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>67.84317158411663</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>157.3129833303995</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>29.09084106573908</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6519788371599</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>169.4333835975975</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.146815977588</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C2" t="n">
-        <v>770.1842990371763</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>411.9186004304258</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>411.9186004304258</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>404.9730996812223</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>391.0496956198132</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>63.85497565581608</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="3">
@@ -4398,19 +4400,19 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1298.193879927014</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1298.193879927014</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2637.52054463898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2418.885877611043</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V5" t="n">
-        <v>2418.885877611043</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W5" t="n">
-        <v>2418.885877611043</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
@@ -4662,7 +4664,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.0454376285412</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="C7" t="n">
-        <v>184.0454376285412</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="D7" t="n">
-        <v>184.0454376285412</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587809</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587809</v>
+        <v>444.0275768541698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.826586715716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>200.8329293182748</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5039,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5272,13 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514079</v>
@@ -5294,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.6648329070714</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C16" t="n">
-        <v>545.6648329070714</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123426</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1378.895129936361</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1378.895129936361</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1089.766491149919</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V16" t="n">
-        <v>835.082002944032</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W16" t="n">
-        <v>545.6648329070714</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X16" t="n">
-        <v>545.6648329070714</v>
+        <v>952.4291311618693</v>
       </c>
       <c r="Y16" t="n">
-        <v>545.6648329070714</v>
+        <v>731.6365520183392</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5519,7 +5521,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1322.84934122136</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.84934122136</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.84934122136</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1322.84934122136</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>1322.84934122136</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5731,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>852.904235876376</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,25 +5992,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>592.8217113586338</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="26">
@@ -6209,28 +6211,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,19 +6253,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590536</v>
@@ -6312,13 +6314,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.6416303362487</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C28" t="n">
-        <v>355.6416303362487</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>986.0722252080359</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0722252080359</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0722252080359</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>986.0722252080359</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X28" t="n">
-        <v>758.0826743100185</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y28" t="n">
-        <v>537.2900951664884</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4040.160816087026</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C31" t="n">
-        <v>3871.22463315912</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D31" t="n">
-        <v>3721.107993746784</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E31" t="n">
-        <v>3721.107993746784</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746784</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.85945949167</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>4442.601860060796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>4442.601860060796</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>4442.601860060796</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>4221.809280917266</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>531.109187020113</v>
+        <v>3827.704265900556</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>3827.704265900556</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>4117.121435937516</v>
       </c>
       <c r="W34" t="n">
-        <v>531.109187020113</v>
+        <v>3827.704265900556</v>
       </c>
       <c r="X34" t="n">
-        <v>531.109187020113</v>
+        <v>3827.704265900556</v>
       </c>
       <c r="Y34" t="n">
-        <v>531.109187020113</v>
+        <v>3827.704265900556</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6922,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1281.032036247722</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>991.90339746128</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>737.2189092553931</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="W37" t="n">
-        <v>447.8017392184324</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X37" t="n">
-        <v>447.8017392184324</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7254,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>530.7956248556235</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C40" t="n">
-        <v>361.8594419277166</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1430.38781441233</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>1141.259175625888</v>
       </c>
       <c r="V40" t="n">
-        <v>933.2366688293934</v>
+        <v>886.5746874200013</v>
       </c>
       <c r="W40" t="n">
-        <v>933.2366688293934</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="X40" t="n">
-        <v>933.2366688293934</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="Y40" t="n">
-        <v>712.4440896858632</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,7 +7435,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>557.490562163493</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C43" t="n">
-        <v>388.5543792355861</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>959.9316061372629</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>739.1390269937327</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7667,13 +7669,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1016.776325118515</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>727.647686332073</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>221.1079791745888</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992663</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050813</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8702,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>234.4116509503158</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>182.0340742867936</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>283.6093329825491</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>52.77080983974792</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.0642331720697</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>214.1201108327497</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>47.24130101521246</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>66.1538091058583</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>95.92021308231685</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0180325826781</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>21.71711854941739</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.9526198872622</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>52.80268797598892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>78.08696614463851</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>203.7629790749138</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.3732221796674</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>145.952619887264</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>153.7043894742726</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>22.51899685153776</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>119.5246319524733</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.18000134477735</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>52.11417746079175</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027171</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="14">
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409897</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409908</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>684300.8545409899</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="L2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="H2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.85454099</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>684300.8545409903</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409905</v>
       </c>
       <c r="N2" t="n">
         <v>684300.8545409903</v>
@@ -26366,13 +26368,13 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.552851927044685e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>174490.7773218262</v>
+      </c>
+      <c r="C4" t="n">
         <v>174490.7773218261</v>
       </c>
-      <c r="C4" t="n">
-        <v>174490.7773218262</v>
-      </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26433,25 +26435,25 @@
         <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.1859685323</v>
+        <v>-128906.1859685325</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460123</v>
+        <v>461061.6932460119</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460123</v>
+        <v>461061.6932460121</v>
       </c>
       <c r="E6" t="n">
         <v>37849.94656307533</v>
       </c>
       <c r="F6" t="n">
-        <v>563009.9830399709</v>
+        <v>563009.9830399707</v>
       </c>
       <c r="G6" t="n">
+        <v>563009.9830399719</v>
+      </c>
+      <c r="H6" t="n">
+        <v>563009.9830399712</v>
+      </c>
+      <c r="I6" t="n">
+        <v>563009.9830399716</v>
+      </c>
+      <c r="J6" t="n">
+        <v>386586.763847378</v>
+      </c>
+      <c r="K6" t="n">
+        <v>563009.9830399717</v>
+      </c>
+      <c r="L6" t="n">
+        <v>563009.9830399712</v>
+      </c>
+      <c r="M6" t="n">
+        <v>428208.9678061343</v>
+      </c>
+      <c r="N6" t="n">
         <v>563009.9830399713</v>
-      </c>
-      <c r="H6" t="n">
-        <v>563009.9830399716</v>
-      </c>
-      <c r="I6" t="n">
-        <v>563009.9830399711</v>
-      </c>
-      <c r="J6" t="n">
-        <v>386586.7638473782</v>
-      </c>
-      <c r="K6" t="n">
-        <v>563009.9830399714</v>
-      </c>
-      <c r="L6" t="n">
-        <v>563009.9830399714</v>
-      </c>
-      <c r="M6" t="n">
-        <v>428208.9678061344</v>
-      </c>
-      <c r="N6" t="n">
-        <v>563009.9830399714</v>
       </c>
       <c r="O6" t="n">
         <v>563009.9830399712</v>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26960,13 +26962,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>142.1184423477641</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>62.54498204632108</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.7135129540467</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>115.3834518935216</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>89.03126756218951</v>
       </c>
       <c r="E7" t="n">
-        <v>17.63253139647415</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>70.23119271121249</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>114.8684489539633</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>16.39642322652793</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551347</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35422,7 +35424,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109123</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35504,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35887,7 +35889,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,13 +35974,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914241</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>332.6095128747329</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>594.0337100330154</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36832,19 +36834,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>71.38553859468891</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,10 +37873,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3399218.617970091</v>
+        <v>3392201.60307838</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>307.186118632148</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>259.216857118215</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>246.795623832921</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>59.58420545602284</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>117.3776555795995</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>368.0745826192868</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>271.3694897020903</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.52687838733141</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210775</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>128.0812249832981</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>11.58954455628749</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>152.6324412535788</v>
       </c>
       <c r="U22" t="n">
-        <v>220.083543292719</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>156.2174302415112</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>38.59744043553425</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>163.8404319477282</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>70.52850687357385</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7644211441605784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>67.84317158411663</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>117.7873989665796</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>157.3129833303995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>169.4333835975975</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X2" t="n">
-        <v>2386.860082298881</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y2" t="n">
-        <v>1996.720750323069</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1667.156396867425</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C5" t="n">
-        <v>1298.193879927014</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1298.193879927014</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533143</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186808</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843237</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843237</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843237</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1667.156396867425</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
@@ -4664,7 +4664,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541698</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C7" t="n">
-        <v>444.0275768541698</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="D7" t="n">
-        <v>383.841510736975</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600566</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541698</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541698</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541698</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541698</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1580.775345511216</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1580.775345511216</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1222.509646904466</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>836.7213943062213</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>425.7354895166138</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520779</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520779</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>2149.375138862102</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.3840174432676</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>155.4478345153607</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>155.4478345153607</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>155.4478345153607</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735073</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,16 +5357,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>964.135741824786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>952.4291311618693</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>732.169830515405</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011341</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.5712828402495</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1233.666984035305</v>
       </c>
       <c r="U22" t="n">
-        <v>852.904235876376</v>
+        <v>944.5383452488629</v>
       </c>
       <c r="V22" t="n">
-        <v>598.2197476704891</v>
+        <v>944.5383452488629</v>
       </c>
       <c r="W22" t="n">
-        <v>598.2197476704891</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="X22" t="n">
-        <v>598.2197476704891</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y22" t="n">
-        <v>598.2197476704891</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6056,31 +6056,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>592.8217113586338</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1141.200876391121</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1141.200876391121</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,19 +6244,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,7 +6311,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>284.1174986139257</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>284.1174986139257</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1222.345781313942</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441654</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X28" t="n">
-        <v>465.7659634441654</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y28" t="n">
-        <v>465.7659634441654</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="29">
@@ -6454,34 +6454,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>570.0299571250974</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3827.704265900556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3827.704265900556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4371.805924143403</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4117.121435937516</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3827.704265900556</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3827.704265900556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3827.704265900556</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>167.8887746690279</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>316.9584588710877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7131,16 +7131,16 @@
         <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>674.2349604684848</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>674.2349604684848</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.509052552801</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1430.38781441233</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1141.259175625888</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>886.5746874200013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>597.1575173830407</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X40" t="n">
-        <v>597.1575173830407</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.1575173830407</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665167</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.6075462588844</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>653.6713633309776</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>981.5095496229244</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,25 +7651,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1016.776325118515</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>727.647686332073</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>727.647686332073</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>234.4116509503158</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>182.0340742867936</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>159.0121003135246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10369,10 +10369,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>29.47535963978225</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10840,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>52.77080983974792</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>90.50342836879673</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>214.1201108327497</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>68.91511980481047</v>
       </c>
       <c r="U22" t="n">
-        <v>66.1538091058583</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>95.92021308231685</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0180325826781</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>57.70712911066101</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>78.08696614463851</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>251.3732221796674</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.7043894742726</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>107.9222564224576</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.51899685153776</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>90.9670373936883</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>52.11417746079175</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712816.6064027171</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="F2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409897</v>
-      </c>
       <c r="G2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.85454099</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="L2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="N2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409897</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.552851927044685e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
+        <v>29303.54555230239</v>
+      </c>
+      <c r="G4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26447,7 +26447,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26472,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.1859685325</v>
+        <v>-128906.1859685318</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460119</v>
+        <v>461061.6932460124</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460121</v>
+        <v>461061.6932460124</v>
       </c>
       <c r="E6" t="n">
-        <v>37849.94656307533</v>
+        <v>36875.35530335335</v>
       </c>
       <c r="F6" t="n">
-        <v>563009.9830399707</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="G6" t="n">
-        <v>563009.9830399719</v>
+        <v>562035.3917802491</v>
       </c>
       <c r="H6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="I6" t="n">
-        <v>563009.9830399716</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="J6" t="n">
-        <v>386586.763847378</v>
+        <v>385612.1725876567</v>
       </c>
       <c r="K6" t="n">
-        <v>563009.9830399717</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="L6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="M6" t="n">
-        <v>428208.9678061343</v>
+        <v>427234.3765464126</v>
       </c>
       <c r="N6" t="n">
-        <v>563009.9830399713</v>
+        <v>562035.3917802497</v>
       </c>
       <c r="O6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802491</v>
       </c>
       <c r="P6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802495</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>10.52067551358146</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>62.54498204632108</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>122.7135129540467</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>4.428543675368275</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>89.03126756218951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>38.79323326219564</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>45.70958740150814</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>114.8684489539633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109123</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35965,16 +35965,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
@@ -35986,7 +35986,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>516.7753531914241</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>332.6095128747329</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>309.5875389014639</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>71.38553859468891</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37861,10 +37861,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3392201.60307838</v>
+        <v>3397140.865927412</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>297.0344127064965</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.95772706123027</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>186.815174149556</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>246.795623832921</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>117.3776555795995</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.08467608327388</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>368.0745826192868</v>
+        <v>123.1485441819096</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.52687838733141</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>86.18768101996842</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.0812249832981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>24.32276211751105</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>152.6324412535788</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>163.8404319477282</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>79.80190576913995</v>
       </c>
     </row>
     <row r="32">
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>117.7873989665796</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>76.27978370493953</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
         <v>351.9727148150933</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.8148076117927</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1998.019737912806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1998.019737912806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1998.019737912806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.553979651726</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.414647675914</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.1627947174721</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>218.1627947174721</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>218.1627947174721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>218.1627947174721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>218.1627947174721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>218.1627947174721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.7909275566628</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.1627947174721</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.775345511216</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C8" t="n">
-        <v>1580.775345511216</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D8" t="n">
-        <v>1222.509646904466</v>
+        <v>975.109608078832</v>
       </c>
       <c r="E8" t="n">
-        <v>836.7213943062213</v>
+        <v>589.3213554805877</v>
       </c>
       <c r="F8" t="n">
-        <v>425.7354895166138</v>
+        <v>178.3354506909802</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511216</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4898,28 +4898,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4941,28 +4941,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5020,10 +5020,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>1841.189502980821</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2361.490124716568</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293931</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>933.2366688293931</v>
+        <v>644.2594646985458</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2471179313758</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007717</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5272,25 +5272,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,13 +5691,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1382.222354598086</v>
@@ -5734,46 +5734,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1233.666984035305</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>944.5383452488629</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>944.5383452488629</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>655.1211752119023</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>655.1211752119023</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,13 +6077,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,10 +6211,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1222.345781313942</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>933.2171425274998</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>933.2171425274998</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>643.7999724905393</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6891,13 +6891,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7119,22 +7119,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.7176547498453</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>200.3353173166226</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.50342836879673</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>194.2618912345837</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>68.91511980481047</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>57.70712911066101</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>138.7827475829548</v>
       </c>
     </row>
     <row r="32">
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>107.9222564224576</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>90.9670373936883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="F2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409902</v>
-      </c>
       <c r="G2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
         <v>684300.8545409901</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409897</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409901</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230237</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29303.54555230239</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26447,13 +26447,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26487,10 +26487,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.1859685318</v>
+        <v>-128906.185968532</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460124</v>
+        <v>461061.693246012</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460124</v>
+        <v>461061.6932460122</v>
       </c>
       <c r="E6" t="n">
-        <v>36875.35530335335</v>
+        <v>37752.48743710302</v>
       </c>
       <c r="F6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="G6" t="n">
-        <v>562035.3917802491</v>
+        <v>562912.5239139989</v>
       </c>
       <c r="H6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="I6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139989</v>
       </c>
       <c r="J6" t="n">
-        <v>385612.1725876567</v>
+        <v>386489.3047214063</v>
       </c>
       <c r="K6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="L6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="M6" t="n">
-        <v>427234.3765464126</v>
+        <v>428111.508680162</v>
       </c>
       <c r="N6" t="n">
-        <v>562035.3917802497</v>
+        <v>562912.5239139992</v>
       </c>
       <c r="O6" t="n">
-        <v>562035.3917802491</v>
+        <v>562912.5239139989</v>
       </c>
       <c r="P6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139991</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,16 +26749,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>116.7497573142984</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.52067551358146</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>104.7780420844848</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.968995871239</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>4.428543675368275</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>38.79323326219564</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>4.038073871640414</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>45.70958740150814</v>
+        <v>290.6356258388854</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717195</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35503,13 +35503,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.7306875349194</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
